--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.628170333333333</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H2">
-        <v>7.884511</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I2">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J2">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6629413333333334</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N2">
-        <v>1.988824</v>
+        <v>2.336614</v>
       </c>
       <c r="O2">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P2">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q2">
-        <v>1.742322745007111</v>
+        <v>1.857217655838222</v>
       </c>
       <c r="R2">
-        <v>15.680904705064</v>
+        <v>16.714958902544</v>
       </c>
       <c r="S2">
-        <v>0.0008418254815774124</v>
+        <v>0.0008611764166040098</v>
       </c>
       <c r="T2">
-        <v>0.0008418254815774124</v>
+        <v>0.0008611764166040098</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.628170333333333</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H3">
-        <v>7.884511</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I3">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J3">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>89.435529</v>
       </c>
       <c r="O3">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P3">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q3">
-        <v>78.35060135459099</v>
+        <v>71.08629988437598</v>
       </c>
       <c r="R3">
-        <v>705.155412191319</v>
+        <v>639.7766989593839</v>
       </c>
       <c r="S3">
-        <v>0.03785609348567577</v>
+        <v>0.03296212741227434</v>
       </c>
       <c r="T3">
-        <v>0.03785609348567577</v>
+        <v>0.03296212741227434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.628170333333333</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H4">
-        <v>7.884511</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I4">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J4">
-        <v>0.04342563178849849</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.723095</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N4">
-        <v>11.169285</v>
+        <v>16.5267</v>
       </c>
       <c r="O4">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P4">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q4">
-        <v>9.784927827181667</v>
+        <v>13.1359647048</v>
       </c>
       <c r="R4">
-        <v>88.064350444635</v>
+        <v>118.2236823432</v>
       </c>
       <c r="S4">
-        <v>0.004727712821245303</v>
+        <v>0.006091037836925349</v>
       </c>
       <c r="T4">
-        <v>0.004727712821245303</v>
+        <v>0.006091037836925351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.014214</v>
+        <v>2.384498666666666</v>
       </c>
       <c r="H5">
-        <v>168.042642</v>
+        <v>7.153495999999999</v>
       </c>
       <c r="I5">
-        <v>0.9255308155773353</v>
+        <v>0.03997130847982828</v>
       </c>
       <c r="J5">
-        <v>0.9255308155773353</v>
+        <v>0.03997130847982829</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6629413333333334</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N5">
-        <v>1.988824</v>
+        <v>0.154567</v>
       </c>
       <c r="O5">
-        <v>0.01938545156182102</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P5">
-        <v>0.01938545156182102</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q5">
-        <v>37.13413771477867</v>
+        <v>0.1228549351368889</v>
       </c>
       <c r="R5">
-        <v>334.207239433008</v>
+        <v>1.105694416232</v>
       </c>
       <c r="S5">
-        <v>0.01794183279434713</v>
+        <v>5.696681402458086E-05</v>
       </c>
       <c r="T5">
-        <v>0.01794183279434713</v>
+        <v>5.696681402458087E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>168.042642</v>
       </c>
       <c r="I6">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334476</v>
       </c>
       <c r="J6">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334477</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.811843</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N6">
-        <v>89.435529</v>
+        <v>2.336614</v>
       </c>
       <c r="O6">
-        <v>0.8717453707996982</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P6">
-        <v>0.8717453707996982</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q6">
-        <v>1669.886953536402</v>
+        <v>43.62786554379867</v>
       </c>
       <c r="R6">
-        <v>15028.98258182762</v>
+        <v>392.650789894188</v>
       </c>
       <c r="S6">
-        <v>0.8068272040120112</v>
+        <v>0.02022987924704655</v>
       </c>
       <c r="T6">
-        <v>0.8068272040120112</v>
+        <v>0.02022987924704655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>168.042642</v>
       </c>
       <c r="I7">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334476</v>
       </c>
       <c r="J7">
-        <v>0.9255308155773353</v>
+        <v>0.9389652669334477</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.723095</v>
+        <v>29.811843</v>
       </c>
       <c r="N7">
-        <v>11.169285</v>
+        <v>89.435529</v>
       </c>
       <c r="O7">
-        <v>0.1088691776384809</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P7">
-        <v>0.1088691776384809</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q7">
-        <v>208.54624007233</v>
+        <v>1669.886953536402</v>
       </c>
       <c r="R7">
-        <v>1876.91616065097</v>
+        <v>15028.98258182762</v>
       </c>
       <c r="S7">
-        <v>0.100761778770977</v>
+        <v>0.774312724337751</v>
       </c>
       <c r="T7">
-        <v>0.100761778770977</v>
+        <v>0.7743127243377511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,25 +903,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.003554</v>
+        <v>56.014214</v>
       </c>
       <c r="H8">
-        <v>0.010662</v>
+        <v>168.042642</v>
       </c>
       <c r="I8">
-        <v>5.872324689875768E-05</v>
+        <v>0.9389652669334476</v>
       </c>
       <c r="J8">
-        <v>5.872324689875769E-05</v>
+        <v>0.9389652669334477</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6629413333333334</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N8">
-        <v>1.988824</v>
+        <v>16.5267</v>
       </c>
       <c r="O8">
-        <v>0.01938545156182102</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P8">
-        <v>0.01938545156182102</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q8">
-        <v>0.002356093498666667</v>
+        <v>308.5767035046001</v>
       </c>
       <c r="R8">
-        <v>0.021204841488</v>
+        <v>2777.1903315414</v>
       </c>
       <c r="S8">
-        <v>1.138376658308723E-06</v>
+        <v>0.1430844569758481</v>
       </c>
       <c r="T8">
-        <v>1.138376658308724E-06</v>
+        <v>0.1430844569758481</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>56.014214</v>
+      </c>
+      <c r="H9">
+        <v>168.042642</v>
+      </c>
+      <c r="I9">
+        <v>0.9389652669334476</v>
+      </c>
+      <c r="J9">
+        <v>0.9389652669334477</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.003554</v>
-      </c>
-      <c r="H9">
-        <v>0.010662</v>
-      </c>
-      <c r="I9">
-        <v>5.872324689875768E-05</v>
-      </c>
-      <c r="J9">
-        <v>5.872324689875769E-05</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>29.811843</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N9">
-        <v>89.435529</v>
+        <v>0.154567</v>
       </c>
       <c r="O9">
-        <v>0.8717453707996982</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P9">
-        <v>0.8717453707996982</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q9">
-        <v>0.105951290022</v>
+        <v>2.885983005112667</v>
       </c>
       <c r="R9">
-        <v>0.953561610198</v>
+        <v>25.973847046014</v>
       </c>
       <c r="S9">
-        <v>5.119171864231974E-05</v>
+        <v>0.001338206372801945</v>
       </c>
       <c r="T9">
-        <v>5.119171864231975E-05</v>
+        <v>0.001338206372801945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.003554</v>
+        <v>0.036048</v>
       </c>
       <c r="H10">
-        <v>0.010662</v>
+        <v>0.108144</v>
       </c>
       <c r="I10">
-        <v>5.872324689875768E-05</v>
+        <v>0.0006042719789376481</v>
       </c>
       <c r="J10">
-        <v>5.872324689875769E-05</v>
+        <v>0.0006042719789376483</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.723095</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N10">
-        <v>11.169285</v>
+        <v>2.336614</v>
       </c>
       <c r="O10">
-        <v>0.1088691776384809</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P10">
-        <v>0.1088691776384809</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q10">
-        <v>0.01323187963</v>
+        <v>0.028076753824</v>
       </c>
       <c r="R10">
-        <v>0.11908691667</v>
+        <v>0.252690784416</v>
       </c>
       <c r="S10">
-        <v>6.393151598129221E-06</v>
+        <v>1.301895777913681E-05</v>
       </c>
       <c r="T10">
-        <v>6.393151598129222E-06</v>
+        <v>1.301895777913681E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.813827666666667</v>
+        <v>0.036048</v>
       </c>
       <c r="H11">
-        <v>5.441483</v>
+        <v>0.108144</v>
       </c>
       <c r="I11">
-        <v>0.02997013221763203</v>
+        <v>0.0006042719789376481</v>
       </c>
       <c r="J11">
-        <v>0.02997013221763203</v>
+        <v>0.0006042719789376483</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,60 +1116,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6629413333333334</v>
+        <v>29.811843</v>
       </c>
       <c r="N11">
-        <v>1.988824</v>
+        <v>89.435529</v>
       </c>
       <c r="O11">
-        <v>0.01938545156182102</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P11">
-        <v>0.01938545156182102</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q11">
-        <v>1.202461331776889</v>
+        <v>1.074657316464</v>
       </c>
       <c r="R11">
-        <v>10.822151985992</v>
+        <v>9.671915848175999</v>
       </c>
       <c r="S11">
-        <v>0.0005809845464062772</v>
+        <v>0.0004983096805915593</v>
       </c>
       <c r="T11">
-        <v>0.0005809845464062773</v>
+        <v>0.0004983096805915593</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.813827666666667</v>
+        <v>0.036048</v>
       </c>
       <c r="H12">
-        <v>5.441483</v>
+        <v>0.108144</v>
       </c>
       <c r="I12">
-        <v>0.02997013221763203</v>
+        <v>0.0006042719789376481</v>
       </c>
       <c r="J12">
-        <v>0.02997013221763203</v>
+        <v>0.0006042719789376483</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.811843</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N12">
-        <v>89.435529</v>
+        <v>16.5267</v>
       </c>
       <c r="O12">
-        <v>0.8717453707996982</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P12">
-        <v>0.8717453707996982</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q12">
-        <v>54.073545627723</v>
+        <v>0.1985848272</v>
       </c>
       <c r="R12">
-        <v>486.661910649507</v>
+        <v>1.7872634448</v>
       </c>
       <c r="S12">
-        <v>0.02612632402297561</v>
+        <v>9.208213659956685E-05</v>
       </c>
       <c r="T12">
-        <v>0.02612632402297561</v>
+        <v>9.208213659956688E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.813827666666667</v>
+        <v>0.036048</v>
       </c>
       <c r="H13">
-        <v>5.441483</v>
+        <v>0.108144</v>
       </c>
       <c r="I13">
-        <v>0.02997013221763203</v>
+        <v>0.0006042719789376481</v>
       </c>
       <c r="J13">
-        <v>0.02997013221763203</v>
+        <v>0.0006042719789376483</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>3.723095</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N13">
-        <v>11.169285</v>
+        <v>0.154567</v>
       </c>
       <c r="O13">
-        <v>0.1088691776384809</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="P13">
-        <v>0.1088691776384809</v>
+        <v>0.001425192624187658</v>
       </c>
       <c r="Q13">
-        <v>6.753052716628334</v>
+        <v>0.001857277072</v>
       </c>
       <c r="R13">
-        <v>60.777474449655</v>
+        <v>0.016715493648</v>
       </c>
       <c r="S13">
-        <v>0.00326282364825014</v>
+        <v>8.612039673852161E-07</v>
       </c>
       <c r="T13">
-        <v>0.00326282364825014</v>
+        <v>8.612039673852163E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06141066666666666</v>
+        <v>1.188166</v>
       </c>
       <c r="H14">
-        <v>0.184232</v>
+        <v>3.564498</v>
       </c>
       <c r="I14">
-        <v>0.001014697169635334</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="J14">
-        <v>0.001014697169635334</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6629413333333334</v>
+        <v>0.7788713333333334</v>
       </c>
       <c r="N14">
-        <v>1.988824</v>
+        <v>2.336614</v>
       </c>
       <c r="O14">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="P14">
-        <v>0.01938545156182102</v>
+        <v>0.02154486428780801</v>
       </c>
       <c r="Q14">
-        <v>0.04071166924088889</v>
+        <v>0.9254284366413335</v>
       </c>
       <c r="R14">
-        <v>0.366405023168</v>
+        <v>8.328855929772001</v>
       </c>
       <c r="S14">
-        <v>1.967036283188264E-05</v>
+        <v>0.0004291134872560438</v>
       </c>
       <c r="T14">
-        <v>1.967036283188264E-05</v>
+        <v>0.0004291134872560438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06141066666666666</v>
+        <v>1.188166</v>
       </c>
       <c r="H15">
-        <v>0.184232</v>
+        <v>3.564498</v>
       </c>
       <c r="I15">
-        <v>0.001014697169635334</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="J15">
-        <v>0.001014697169635334</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>89.435529</v>
       </c>
       <c r="O15">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="P15">
-        <v>0.8717453707996982</v>
+        <v>0.8246446930529893</v>
       </c>
       <c r="Q15">
-        <v>1.830765153192</v>
+        <v>35.421418249938</v>
       </c>
       <c r="R15">
-        <v>16.476886378728</v>
+        <v>318.792764249442</v>
       </c>
       <c r="S15">
-        <v>0.000884557560393158</v>
+        <v>0.01642461773051905</v>
       </c>
       <c r="T15">
-        <v>0.000884557560393158</v>
+        <v>0.01642461773051905</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06141066666666666</v>
+        <v>1.188166</v>
       </c>
       <c r="H16">
-        <v>0.184232</v>
+        <v>3.564498</v>
       </c>
       <c r="I16">
-        <v>0.001014697169635334</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="J16">
-        <v>0.001014697169635334</v>
+        <v>0.01991720539631685</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.723095</v>
+        <v>5.508900000000001</v>
       </c>
       <c r="N16">
-        <v>11.169285</v>
+        <v>16.5267</v>
       </c>
       <c r="O16">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="P16">
-        <v>0.1088691776384809</v>
+        <v>0.152385250035015</v>
       </c>
       <c r="Q16">
-        <v>0.2286377460133333</v>
+        <v>6.545487677400001</v>
       </c>
       <c r="R16">
-        <v>2.05773971412</v>
+        <v>58.9093890966</v>
       </c>
       <c r="S16">
-        <v>0.0001104692464102929</v>
+        <v>0.003035088324316494</v>
       </c>
       <c r="T16">
-        <v>0.0001104692464102929</v>
+        <v>0.003035088324316494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.188166</v>
+      </c>
+      <c r="H17">
+        <v>3.564498</v>
+      </c>
+      <c r="I17">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="J17">
+        <v>0.01991720539631685</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.154567</v>
+      </c>
+      <c r="O17">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="P17">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="Q17">
+        <v>0.06121708470733334</v>
+      </c>
+      <c r="R17">
+        <v>0.550953762366</v>
+      </c>
+      <c r="S17">
+        <v>2.83858542252614E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.83858542252614E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.03233</v>
+      </c>
+      <c r="H18">
+        <v>0.09698999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="J18">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7788713333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.336614</v>
+      </c>
+      <c r="O18">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="P18">
+        <v>0.02154486428780801</v>
+      </c>
+      <c r="Q18">
+        <v>0.02518091020666667</v>
+      </c>
+      <c r="R18">
+        <v>0.22662819186</v>
+      </c>
+      <c r="S18">
+        <v>1.167617912226734E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.167617912226734E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.03233</v>
+      </c>
+      <c r="H19">
+        <v>0.09698999999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="J19">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.811843</v>
+      </c>
+      <c r="N19">
+        <v>89.435529</v>
+      </c>
+      <c r="O19">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="P19">
+        <v>0.8246446930529893</v>
+      </c>
+      <c r="Q19">
+        <v>0.9638168841899999</v>
+      </c>
+      <c r="R19">
+        <v>8.67435195771</v>
+      </c>
+      <c r="S19">
+        <v>0.0004469138918532266</v>
+      </c>
+      <c r="T19">
+        <v>0.0004469138918532266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.03233</v>
+      </c>
+      <c r="H20">
+        <v>0.09698999999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="J20">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.508900000000001</v>
+      </c>
+      <c r="N20">
+        <v>16.5267</v>
+      </c>
+      <c r="O20">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="P20">
+        <v>0.152385250035015</v>
+      </c>
+      <c r="Q20">
+        <v>0.178102737</v>
+      </c>
+      <c r="R20">
+        <v>1.602924633</v>
+      </c>
+      <c r="S20">
+        <v>8.258476132556582E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.258476132556582E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.03233</v>
+      </c>
+      <c r="H21">
+        <v>0.09698999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="J21">
+        <v>0.0005419472114695452</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.154567</v>
+      </c>
+      <c r="O21">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="P21">
+        <v>0.001425192624187658</v>
+      </c>
+      <c r="Q21">
+        <v>0.001665717036666667</v>
+      </c>
+      <c r="R21">
+        <v>0.01499145333</v>
+      </c>
+      <c r="S21">
+        <v>7.723791684854649E-07</v>
+      </c>
+      <c r="T21">
+        <v>7.723791684854649E-07</v>
       </c>
     </row>
   </sheetData>
